--- a/ElectrekTestPlan.xlsx
+++ b/ElectrekTestPlan.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t xml:space="preserve">ELECTREK TEST PLAN</t>
   </si>
@@ -86,6 +86,27 @@
   </si>
   <si>
     <t xml:space="preserve">map appears with ward boundaries instead of division boundaries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accumulate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tag counters of nodemaps increment from 1 and reset every map </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tag counters of nodemaps when accumulate on increment from 1 and accumulate </t>
+  </si>
+  <si>
+    <t xml:space="preserve">colour of nodemaps changes when accumulate on</t>
+  </si>
+  <si>
+    <t xml:space="preserve">colour of maps does not change when accumulate off</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Out of area elections</t>
+  </si>
+  <si>
+    <t xml:space="preserve">click on map to get lat long, enter lat long as election bookmark, make territory England</t>
   </si>
 </sst>
 </file>
@@ -100,6 +121,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -121,6 +143,7 @@
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -165,12 +188,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -297,120 +324,170 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="4.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="35.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="23.58"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" s="1" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
